--- a/Team-Data/2014-15/3-23-2014-15.xlsx
+++ b/Team-Data/2014-15/3-23-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -756,16 +823,16 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL2" t="n">
         <v>3</v>
@@ -792,7 +859,7 @@
         <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
         <v>39</v>
       </c>
       <c r="G3" t="n">
-        <v>0.443</v>
+        <v>0.435</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="J3" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L3" t="n">
         <v>8.1</v>
       </c>
       <c r="M3" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="O3" t="n">
         <v>14.9</v>
@@ -887,13 +954,13 @@
         <v>19.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R3" t="n">
         <v>11.3</v>
       </c>
       <c r="S3" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T3" t="n">
         <v>44.1</v>
@@ -902,7 +969,7 @@
         <v>24.3</v>
       </c>
       <c r="V3" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -917,28 +984,28 @@
         <v>21.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH3" t="n">
         <v>10</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
@@ -956,13 +1023,13 @@
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
         <v>18</v>
@@ -980,16 +1047,16 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
@@ -998,7 +1065,7 @@
         <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" t="n">
         <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>0.42</v>
+        <v>0.426</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
@@ -1048,43 +1115,43 @@
         <v>37.1</v>
       </c>
       <c r="J4" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.324</v>
+        <v>0.328</v>
       </c>
       <c r="O4" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P4" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.745</v>
+        <v>0.743</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S4" t="n">
         <v>31.9</v>
       </c>
       <c r="T4" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V4" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1096,25 +1163,25 @@
         <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA4" t="n">
         <v>20.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.5</v>
+        <v>-3.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG4" t="n">
         <v>22</v>
@@ -1126,7 +1193,7 @@
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
@@ -1141,25 +1208,25 @@
         <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
         <v>16</v>
@@ -1174,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA4" t="n">
         <v>15</v>
@@ -1183,7 +1250,7 @@
         <v>23</v>
       </c>
       <c r="BC4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -1212,97 +1279,97 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.435</v>
+        <v>0.441</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J5" t="n">
         <v>84.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.424</v>
+        <v>0.425</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.316</v>
+        <v>0.314</v>
       </c>
       <c r="O5" t="n">
         <v>17.2</v>
       </c>
       <c r="P5" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.747</v>
+        <v>0.746</v>
       </c>
       <c r="R5" t="n">
         <v>10</v>
       </c>
       <c r="S5" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T5" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U5" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V5" t="n">
         <v>11.9</v>
       </c>
       <c r="W5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y5" t="n">
         <v>5.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1341,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,16 +1420,16 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
         <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>0.597</v>
+        <v>0.592</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1412,19 +1479,19 @@
         <v>36.5</v>
       </c>
       <c r="J6" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.44</v>
       </c>
       <c r="L6" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O6" t="n">
         <v>19.9</v>
@@ -1433,13 +1500,13 @@
         <v>25.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.786</v>
+        <v>0.787</v>
       </c>
       <c r="R6" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S6" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T6" t="n">
         <v>45.9</v>
@@ -1448,7 +1515,7 @@
         <v>21.7</v>
       </c>
       <c r="V6" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1463,19 +1530,19 @@
         <v>18.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
         <v>100.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
@@ -1484,19 +1551,19 @@
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
         <v>16</v>
@@ -1508,13 +1575,13 @@
         <v>2</v>
       </c>
       <c r="AP6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ6" t="n">
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
         <v>5</v>
@@ -1526,16 +1593,16 @@
         <v>16</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1544,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="BB6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1681,10 +1748,10 @@
         <v>6</v>
       </c>
       <c r="AM7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1708,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
         <v>18</v>
@@ -1720,7 +1787,7 @@
         <v>14</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" t="n">
         <v>44</v>
       </c>
       <c r="F8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.629</v>
+        <v>0.62</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,10 +1843,10 @@
         <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L8" t="n">
         <v>9.300000000000001</v>
@@ -1788,31 +1855,31 @@
         <v>26.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O8" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P8" t="n">
         <v>22.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U8" t="n">
         <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W8" t="n">
         <v>8.300000000000001</v>
@@ -1827,28 +1894,28 @@
         <v>19.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="AC8" t="n">
         <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1869,7 +1936,7 @@
         <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
         <v>18</v>
@@ -1881,7 +1948,7 @@
         <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
         <v>24</v>
@@ -1896,13 +1963,13 @@
         <v>8</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -2033,16 +2100,16 @@
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
         <v>13</v>
@@ -2066,7 +2133,7 @@
         <v>13</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU9" t="n">
         <v>15</v>
@@ -2078,7 +2145,7 @@
         <v>16</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
         <v>30</v>
@@ -2093,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2230,7 +2297,7 @@
         <v>11</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
         <v>24</v>
@@ -2260,7 +2327,7 @@
         <v>15</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2269,7 +2336,7 @@
         <v>8</v>
       </c>
       <c r="BA10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
@@ -2322,10 +2389,10 @@
         <v>41.4</v>
       </c>
       <c r="J11" t="n">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L11" t="n">
         <v>10.6</v>
@@ -2346,19 +2413,19 @@
         <v>0.772</v>
       </c>
       <c r="R11" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6</v>
+        <v>44.3</v>
       </c>
       <c r="U11" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W11" t="n">
         <v>9.5</v>
@@ -2370,19 +2437,19 @@
         <v>3.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB11" t="n">
         <v>109.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2409,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
@@ -2424,13 +2491,13 @@
         <v>8</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
@@ -2439,7 +2506,7 @@
         <v>19</v>
       </c>
       <c r="AW11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX11" t="n">
         <v>1</v>
@@ -2448,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -2504,67 +2571,67 @@
         <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>11.5</v>
       </c>
       <c r="M12" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
         <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.727</v>
+        <v>0.721</v>
       </c>
       <c r="R12" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="S12" t="n">
         <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V12" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
         <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
         <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2600,37 +2667,37 @@
         <v>8</v>
       </c>
       <c r="AP12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR12" t="n">
         <v>6</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>8</v>
       </c>
       <c r="AS12" t="n">
         <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" t="n">
-        <v>0.429</v>
+        <v>0.435</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,7 +2753,7 @@
         <v>36.5</v>
       </c>
       <c r="J13" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K13" t="n">
         <v>0.438</v>
@@ -2695,34 +2762,34 @@
         <v>7.1</v>
       </c>
       <c r="M13" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N13" t="n">
         <v>0.339</v>
       </c>
       <c r="O13" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P13" t="n">
         <v>21.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.764</v>
+        <v>0.766</v>
       </c>
       <c r="R13" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="T13" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U13" t="n">
         <v>21.4</v>
       </c>
       <c r="V13" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W13" t="n">
         <v>6.1</v>
@@ -2734,43 +2801,43 @@
         <v>4.9</v>
       </c>
       <c r="Z13" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="AA13" t="n">
         <v>21</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>21.1</v>
       </c>
       <c r="AB13" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
         <v>20</v>
       </c>
-      <c r="AF13" t="n">
-        <v>21</v>
-      </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2785,37 +2852,37 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
         <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -2946,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2964,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -2973,7 +3040,7 @@
         <v>28</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
         <v>21</v>
@@ -2994,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -3032,55 +3099,55 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" t="n">
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>0.269</v>
+        <v>0.265</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N15" t="n">
         <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T15" t="n">
-        <v>44.4</v>
+        <v>44.3</v>
       </c>
       <c r="U15" t="n">
         <v>20.9</v>
@@ -3092,25 +3159,25 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
         <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.6</v>
+        <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>5</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
@@ -3140,22 +3207,22 @@
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
         <v>9</v>
@@ -3170,16 +3237,16 @@
         <v>21</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA15" t="n">
         <v>22</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>23</v>
       </c>
       <c r="BB15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -3214,43 +3281,43 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" t="n">
         <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>0.704</v>
+        <v>0.7</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M16" t="n">
         <v>15.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="O16" t="n">
         <v>18.1</v>
       </c>
       <c r="P16" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q16" t="n">
         <v>0.776</v>
@@ -3271,7 +3338,7 @@
         <v>13.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X16" t="n">
         <v>4.3</v>
@@ -3286,13 +3353,13 @@
         <v>20.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3313,7 +3380,7 @@
         <v>19</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,19 +3389,19 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>7</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
         <v>7</v>
       </c>
       <c r="AR16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS16" t="n">
         <v>16</v>
@@ -3349,13 +3416,13 @@
         <v>6</v>
       </c>
       <c r="AW16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX16" t="n">
         <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,10 +3562,10 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV17" t="n">
         <v>20</v>
@@ -3537,16 +3604,16 @@
         <v>23</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
         <v>8</v>
       </c>
       <c r="BB17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3671,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
         <v>26</v>
@@ -3692,10 +3759,10 @@
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>19</v>
@@ -3704,13 +3771,13 @@
         <v>23</v>
       </c>
       <c r="AT18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW18" t="n">
         <v>4</v>
@@ -3722,16 +3789,16 @@
         <v>13</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>20</v>
       </c>
       <c r="BB18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -3760,37 +3827,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
         <v>54</v>
       </c>
       <c r="G19" t="n">
-        <v>0.229</v>
+        <v>0.217</v>
       </c>
       <c r="H19" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I19" t="n">
         <v>36.7</v>
       </c>
       <c r="J19" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K19" t="n">
         <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M19" t="n">
         <v>14.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.336</v>
+        <v>0.331</v>
       </c>
       <c r="O19" t="n">
         <v>19.4</v>
@@ -3805,16 +3872,16 @@
         <v>12.1</v>
       </c>
       <c r="S19" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T19" t="n">
         <v>41.7</v>
       </c>
       <c r="U19" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W19" t="n">
         <v>8.300000000000001</v>
@@ -3823,22 +3890,22 @@
         <v>3.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA19" t="n">
         <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-7.9</v>
+        <v>-8.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,7 +3917,7 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
         <v>22</v>
@@ -3868,16 +3935,16 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
         <v>4</v>
@@ -3910,7 +3977,7 @@
         <v>5</v>
       </c>
       <c r="BB19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" t="n">
         <v>33</v>
       </c>
       <c r="G20" t="n">
-        <v>0.522</v>
+        <v>0.529</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,10 +4027,10 @@
         <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>7.1</v>
@@ -3972,28 +4039,28 @@
         <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
       <c r="O20" t="n">
         <v>16.6</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.763</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T20" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V20" t="n">
         <v>13.7</v>
@@ -4002,7 +4069,7 @@
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
         <v>5.9</v>
@@ -4011,16 +4078,16 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4041,25 +4108,25 @@
         <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
@@ -4068,7 +4135,7 @@
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" t="n">
-        <v>0.197</v>
+        <v>0.2</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4142,31 +4209,31 @@
         <v>35.4</v>
       </c>
       <c r="J21" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K21" t="n">
         <v>0.429</v>
       </c>
       <c r="L21" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M21" t="n">
         <v>19.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O21" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="P21" t="n">
         <v>19</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
         <v>29.7</v>
@@ -4178,31 +4245,31 @@
         <v>21.4</v>
       </c>
       <c r="V21" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
       </c>
       <c r="X21" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y21" t="n">
         <v>4.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA21" t="n">
         <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4220,19 +4287,19 @@
         <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
         <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4250,7 +4317,7 @@
         <v>29</v>
       </c>
       <c r="AT21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU21" t="n">
         <v>18</v>
@@ -4262,10 +4329,10 @@
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4423,7 +4490,7 @@
         <v>8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4438,13 +4505,13 @@
         <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW22" t="n">
         <v>20</v>
       </c>
       <c r="AX22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" t="n">
         <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="n">
-        <v>0.31</v>
+        <v>0.306</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
         <v>82.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.353</v>
@@ -4530,43 +4597,43 @@
         <v>0.728</v>
       </c>
       <c r="R23" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U23" t="n">
         <v>20.6</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
         <v>7.9</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.8</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4584,7 +4651,7 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
@@ -4611,7 +4678,7 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
@@ -4626,10 +4693,10 @@
         <v>13</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4814,7 +4881,7 @@
         <v>26</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
         <v>18</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -4951,7 +5018,7 @@
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>8</v>
@@ -4963,13 +5030,13 @@
         <v>14</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>20</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
@@ -4978,16 +5045,16 @@
         <v>15</v>
       </c>
       <c r="AT25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV25" t="n">
         <v>25</v>
       </c>
       <c r="AW25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
@@ -5005,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5127,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
         <v>8</v>
@@ -5142,13 +5209,13 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5342,7 +5409,7 @@
         <v>8</v>
       </c>
       <c r="AT27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E28" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="n">
         <v>25</v>
       </c>
       <c r="G28" t="n">
-        <v>0.632</v>
+        <v>0.638</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,10 +5483,10 @@
         <v>38.6</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L28" t="n">
         <v>8.199999999999999</v>
@@ -5428,13 +5495,13 @@
         <v>22.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
       <c r="O28" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q28" t="n">
         <v>0.776</v>
@@ -5443,16 +5510,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
         <v>7.9</v>
@@ -5470,16 +5537,16 @@
         <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
         <v>6</v>
@@ -5494,7 +5561,7 @@
         <v>6</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
@@ -5506,7 +5573,7 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
@@ -5524,13 +5591,13 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>12</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE29" t="n">
         <v>10</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>11</v>
       </c>
       <c r="AF29" t="n">
         <v>10</v>
@@ -5676,7 +5743,7 @@
         <v>10</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>14</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -5762,52 +5829,52 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" t="n">
         <v>31</v>
       </c>
       <c r="F30" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" t="n">
-        <v>0.443</v>
+        <v>0.449</v>
       </c>
       <c r="H30" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="I30" t="n">
         <v>35.3</v>
       </c>
       <c r="J30" t="n">
-        <v>78.90000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="K30" t="n">
         <v>0.448</v>
       </c>
       <c r="L30" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M30" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N30" t="n">
         <v>0.348</v>
       </c>
       <c r="O30" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P30" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.723</v>
+        <v>0.726</v>
       </c>
       <c r="R30" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="S30" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T30" t="n">
         <v>43.7</v>
@@ -5831,16 +5898,16 @@
         <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="AC30" t="n">
         <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
@@ -5870,7 +5937,7 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
         <v>16</v>
@@ -5879,16 +5946,16 @@
         <v>14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
@@ -5897,10 +5964,10 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
         <v>12</v>
@@ -5912,7 +5979,7 @@
         <v>24</v>
       </c>
       <c r="BB30" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BC30" t="n">
         <v>17</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
@@ -5944,46 +6011,46 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" t="n">
         <v>40</v>
       </c>
       <c r="F31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J31" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.464</v>
+        <v>0.466</v>
       </c>
       <c r="L31" t="n">
         <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O31" t="n">
         <v>15.8</v>
       </c>
       <c r="P31" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R31" t="n">
         <v>10.4</v>
@@ -5992,58 +6059,58 @@
         <v>33.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U31" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="V31" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W31" t="n">
         <v>7.3</v>
       </c>
       <c r="X31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
       </c>
       <c r="AF31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH31" t="n">
         <v>13</v>
       </c>
-      <c r="AG31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>17</v>
-      </c>
       <c r="AI31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ31" t="n">
         <v>23</v>
       </c>
       <c r="AK31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6064,7 +6131,7 @@
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS31" t="n">
         <v>9</v>
@@ -6076,19 +6143,19 @@
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AX31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
         <v>21</v>
@@ -6097,7 +6164,7 @@
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-23-2014-15</t>
+          <t>2015-03-23</t>
         </is>
       </c>
     </row>
